--- a/protected/views/reports/landdisputes.xlsx
+++ b/protected/views/reports/landdisputes.xlsx
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -120,6 +120,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="ind_hi_1_001"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -219,7 +225,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,30 +248,34 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -695,7 +705,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -708,26 +718,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.85" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2"/>
@@ -743,149 +753,149 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" ht="72" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -894,10 +904,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>

--- a/protected/views/reports/landdisputes.xlsx
+++ b/protected/views/reports/landdisputes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>{ong:name}</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>{ld:rv}</t>
-  </si>
-  <si>
-    <t>{ld:ps}</t>
-  </si>
-  <si>
     <t>{ld:dd}</t>
   </si>
   <si>
@@ -70,6 +64,10 @@
   </si>
   <si>
     <t>{ld:at}</t>
+  </si>
+  <si>
+    <t>{ld:rv}
+{ld:ps}</t>
   </si>
 </sst>
 </file>
@@ -225,7 +223,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,24 +254,28 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -705,7 +707,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -718,26 +720,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.85" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2"/>
@@ -776,29 +778,27 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="72" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="F5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="H5" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -892,10 +892,10 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -904,10 +904,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
